--- a/du_lieu.xlsx
+++ b/du_lieu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Zeusx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zeusx_Automation\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86D9300-3001-4F10-9DA3-F44CC7624388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B870302-2000-43FD-90E3-A54D45FC4B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="43">
   <si>
     <t>name_sale</t>
   </si>
@@ -165,13 +165,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -550,21 +550,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L16"/>
+      <selection activeCell="K2" sqref="K2:K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="40.4140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="44" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,7 +604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -624,13 +626,13 @@
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
       <c r="K2" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -652,13 +654,13 @@
       <c r="I3" s="4"/>
       <c r="J3" s="5"/>
       <c r="K3" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -680,13 +682,13 @@
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
       <c r="K4" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -708,13 +710,13 @@
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
       <c r="K5" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -736,13 +738,13 @@
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
       <c r="K6" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -764,13 +766,13 @@
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
       <c r="K7" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -792,13 +794,13 @@
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
       <c r="K8" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -820,13 +822,13 @@
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
       <c r="K9" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -848,13 +850,13 @@
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
       <c r="K10" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -876,13 +878,13 @@
       <c r="I11" s="4"/>
       <c r="J11" s="5"/>
       <c r="K11" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -904,13 +906,13 @@
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
       <c r="K12" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -932,13 +934,13 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
       <c r="K13" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -960,13 +962,13 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
       <c r="K14" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -988,13 +990,13 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
       <c r="K15" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1016,10 +1018,618 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
       <c r="K16" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
+        <v>150</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>150</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>150</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3">
+        <v>150</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3">
+        <v>150</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3">
+        <v>150</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3">
+        <v>150</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3">
+        <v>150</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
+        <v>150</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>150</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3">
+        <v>150</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
+        <v>150</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3">
+        <v>150</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3">
+        <v>150</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3">
+        <v>150</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3">
+        <v>150</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3">
+        <v>150</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="3">
+        <v>150</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="3">
+        <v>150</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1033,19 +1643,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5136A422-EC31-49B7-8D2A-BFC3B2C05CF3}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="40.4140625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1083,7 +1693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -1113,7 +1723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1141,7 +1751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1173,7 +1783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1235,7 +1845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1263,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1293,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
